--- a/biology/Zoologie/Ariadna_ustulata/Ariadna_ustulata.xlsx
+++ b/biology/Zoologie/Ariadna_ustulata/Ariadna_ustulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ariadna ustulata est une espèce d'araignées aranéomorphes de la famille des Segestriidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ariadna ustulata est une espèce d'araignées aranéomorphes de la famille des Segestriidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Seychelles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Seychelles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 8 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 8 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon, 1898 : Études arachnologiques. 29e Mémoire. XLVI. Arachnides recueillis en 1895 par M. le Dr A. Brauer (de l'Université de Marburg) aux îles Séchelles. Annales de la Société Entomologique de France, vol. 66, p. 370-388 (texte intégral).</t>
         </is>
